--- a/outputs/train-c__Negativicutes.xlsx
+++ b/outputs/train-c__Negativicutes.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="238">
   <si>
     <t>Row</t>
   </si>
@@ -757,7 +757,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -785,11 +785,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -811,6 +831,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,48 +879,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="37" t="s">
         <v>193</v>
       </c>
       <c r="B2">
@@ -921,7 +961,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="37" t="s">
         <v>194</v>
       </c>
       <c r="B3">
@@ -962,7 +1002,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="37" t="s">
         <v>195</v>
       </c>
       <c r="B4">
@@ -1003,7 +1043,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="37" t="s">
         <v>196</v>
       </c>
       <c r="B5">
@@ -1044,7 +1084,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="37" t="s">
         <v>197</v>
       </c>
       <c r="B6">
@@ -1085,7 +1125,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="37" t="s">
         <v>198</v>
       </c>
       <c r="B7">
@@ -1126,7 +1166,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="37" t="s">
         <v>199</v>
       </c>
       <c r="B8">
@@ -1167,7 +1207,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="37" t="s">
         <v>200</v>
       </c>
       <c r="B9">
@@ -1208,7 +1248,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="37" t="s">
         <v>201</v>
       </c>
       <c r="B10">
@@ -1249,7 +1289,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="37" t="s">
         <v>202</v>
       </c>
       <c r="B11">
@@ -1290,7 +1330,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="37" t="s">
         <v>203</v>
       </c>
       <c r="B12">
@@ -1331,7 +1371,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="37" t="s">
         <v>204</v>
       </c>
       <c r="B13">
@@ -1372,7 +1412,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="37" t="s">
         <v>205</v>
       </c>
       <c r="B14">
@@ -1413,7 +1453,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="37" t="s">
         <v>206</v>
       </c>
       <c r="B15">
@@ -1454,7 +1494,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="37" t="s">
         <v>207</v>
       </c>
       <c r="B16">
@@ -1495,7 +1535,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="37" t="s">
         <v>208</v>
       </c>
       <c r="B17">
@@ -1536,7 +1576,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="37" t="s">
         <v>209</v>
       </c>
       <c r="B18">
@@ -1577,7 +1617,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="37" t="s">
         <v>210</v>
       </c>
       <c r="B19">
@@ -1618,7 +1658,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="37" t="s">
         <v>211</v>
       </c>
       <c r="B20">
@@ -1659,7 +1699,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="37" t="s">
         <v>212</v>
       </c>
       <c r="B21">
@@ -1700,7 +1740,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="37" t="s">
         <v>213</v>
       </c>
       <c r="B22">
@@ -1741,7 +1781,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="37" t="s">
         <v>214</v>
       </c>
       <c r="B23">
@@ -1782,7 +1822,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="37" t="s">
         <v>215</v>
       </c>
       <c r="B24">
@@ -1823,7 +1863,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="37" t="s">
         <v>216</v>
       </c>
       <c r="B25">
@@ -1864,7 +1904,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="37" t="s">
         <v>217</v>
       </c>
       <c r="B26">
@@ -1905,7 +1945,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="37" t="s">
         <v>218</v>
       </c>
       <c r="B27">
@@ -1946,7 +1986,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="37" t="s">
         <v>219</v>
       </c>
       <c r="B28">
@@ -1987,7 +2027,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="37" t="s">
         <v>220</v>
       </c>
       <c r="B29">
@@ -2028,7 +2068,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="37" t="s">
         <v>221</v>
       </c>
       <c r="B30">
@@ -2069,7 +2109,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="37" t="s">
         <v>222</v>
       </c>
       <c r="B31">
@@ -2110,7 +2150,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="37" t="s">
         <v>223</v>
       </c>
       <c r="B32">
@@ -2151,7 +2191,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="37" t="s">
         <v>224</v>
       </c>
       <c r="B33">
@@ -2192,7 +2232,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="37" t="s">
         <v>225</v>
       </c>
       <c r="B34">
@@ -2233,7 +2273,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="37" t="s">
         <v>226</v>
       </c>
       <c r="B35">
@@ -2274,7 +2314,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="37" t="s">
         <v>227</v>
       </c>
       <c r="B36">
@@ -2315,7 +2355,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="37" t="s">
         <v>228</v>
       </c>
       <c r="B37">
@@ -2356,7 +2396,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="37" t="s">
         <v>229</v>
       </c>
       <c r="B38">
@@ -2397,7 +2437,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="37" t="s">
         <v>230</v>
       </c>
       <c r="B39">
@@ -2438,7 +2478,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="37" t="s">
         <v>231</v>
       </c>
       <c r="B40">
@@ -2479,7 +2519,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="37" t="s">
         <v>232</v>
       </c>
       <c r="B41">
@@ -2520,7 +2560,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="37" t="s">
         <v>233</v>
       </c>
       <c r="B42">
@@ -2561,7 +2601,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="37" t="s">
         <v>234</v>
       </c>
       <c r="B43">
@@ -2602,7 +2642,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="37" t="s">
         <v>235</v>
       </c>
       <c r="B44">
@@ -2643,7 +2683,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="37" t="s">
         <v>236</v>
       </c>
       <c r="B45">
@@ -2684,7 +2724,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="37" t="s">
         <v>237</v>
       </c>
       <c r="B46">
@@ -2749,48 +2789,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="39" t="s">
         <v>193</v>
       </c>
       <c r="B2">
@@ -2831,7 +2871,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="39" t="s">
         <v>194</v>
       </c>
       <c r="B3">
@@ -2872,7 +2912,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="39" t="s">
         <v>195</v>
       </c>
       <c r="B4">
@@ -2913,7 +2953,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="39" t="s">
         <v>196</v>
       </c>
       <c r="B5">
@@ -2954,7 +2994,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="39" t="s">
         <v>197</v>
       </c>
       <c r="B6">
@@ -2995,7 +3035,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="39" t="s">
         <v>198</v>
       </c>
       <c r="B7">
@@ -3036,7 +3076,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="39" t="s">
         <v>199</v>
       </c>
       <c r="B8">
@@ -3077,7 +3117,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="39" t="s">
         <v>200</v>
       </c>
       <c r="B9">
@@ -3118,7 +3158,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="39" t="s">
         <v>201</v>
       </c>
       <c r="B10">
@@ -3159,7 +3199,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="39" t="s">
         <v>202</v>
       </c>
       <c r="B11">
@@ -3200,7 +3240,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>203</v>
       </c>
       <c r="B12">
@@ -3241,7 +3281,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="39" t="s">
         <v>204</v>
       </c>
       <c r="B13">
@@ -3282,7 +3322,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="39" t="s">
         <v>205</v>
       </c>
       <c r="B14">
@@ -3323,7 +3363,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="39" t="s">
         <v>206</v>
       </c>
       <c r="B15">
@@ -3364,7 +3404,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="39" t="s">
         <v>207</v>
       </c>
       <c r="B16">
@@ -3405,7 +3445,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="39" t="s">
         <v>208</v>
       </c>
       <c r="B17">
@@ -3446,7 +3486,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="39" t="s">
         <v>209</v>
       </c>
       <c r="B18">
@@ -3487,7 +3527,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="39" t="s">
         <v>210</v>
       </c>
       <c r="B19">
@@ -3528,7 +3568,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="39" t="s">
         <v>211</v>
       </c>
       <c r="B20">
@@ -3569,7 +3609,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="39" t="s">
         <v>212</v>
       </c>
       <c r="B21">
@@ -3610,7 +3650,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="39" t="s">
         <v>213</v>
       </c>
       <c r="B22">
@@ -3651,7 +3691,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="39" t="s">
         <v>214</v>
       </c>
       <c r="B23">
@@ -3692,7 +3732,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="39" t="s">
         <v>215</v>
       </c>
       <c r="B24">
@@ -3733,7 +3773,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="39" t="s">
         <v>216</v>
       </c>
       <c r="B25">
@@ -3774,7 +3814,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="39" t="s">
         <v>217</v>
       </c>
       <c r="B26">
@@ -3815,7 +3855,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="39" t="s">
         <v>218</v>
       </c>
       <c r="B27">
@@ -3856,7 +3896,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="39" t="s">
         <v>219</v>
       </c>
       <c r="B28">
@@ -3897,7 +3937,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="39" t="s">
         <v>220</v>
       </c>
       <c r="B29">
@@ -3938,7 +3978,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="39" t="s">
         <v>221</v>
       </c>
       <c r="B30">
@@ -3979,7 +4019,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="39" t="s">
         <v>222</v>
       </c>
       <c r="B31">
@@ -4020,7 +4060,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="39" t="s">
         <v>223</v>
       </c>
       <c r="B32">
@@ -4061,7 +4101,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="39" t="s">
         <v>224</v>
       </c>
       <c r="B33">
@@ -4102,7 +4142,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="39" t="s">
         <v>225</v>
       </c>
       <c r="B34">
@@ -4143,7 +4183,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="39" t="s">
         <v>226</v>
       </c>
       <c r="B35">
@@ -4184,7 +4224,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="39" t="s">
         <v>227</v>
       </c>
       <c r="B36">
@@ -4225,7 +4265,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="39" t="s">
         <v>228</v>
       </c>
       <c r="B37">
@@ -4266,7 +4306,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="39" t="s">
         <v>229</v>
       </c>
       <c r="B38">
@@ -4307,7 +4347,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="39" t="s">
         <v>230</v>
       </c>
       <c r="B39">
@@ -4348,7 +4388,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="39" t="s">
         <v>231</v>
       </c>
       <c r="B40">
@@ -4389,7 +4429,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="39" t="s">
         <v>232</v>
       </c>
       <c r="B41">
@@ -4430,7 +4470,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="39" t="s">
         <v>233</v>
       </c>
       <c r="B42">
@@ -4471,7 +4511,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="39" t="s">
         <v>234</v>
       </c>
       <c r="B43">
@@ -4512,7 +4552,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="39" t="s">
         <v>235</v>
       </c>
       <c r="B44">
@@ -4553,7 +4593,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="39" t="s">
         <v>236</v>
       </c>
       <c r="B45">
@@ -4594,7 +4634,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="39" t="s">
         <v>237</v>
       </c>
       <c r="B46">
@@ -4659,48 +4699,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -4741,7 +4781,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -4782,7 +4822,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -4823,7 +4863,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4864,7 +4904,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -4905,7 +4945,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -4946,7 +4986,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -4987,7 +5027,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -5028,7 +5068,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -5069,7 +5109,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -5110,7 +5150,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -5151,7 +5191,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -5192,7 +5232,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -5233,7 +5273,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -5274,7 +5314,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -5315,7 +5355,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -5356,7 +5396,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -5397,7 +5437,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -5438,7 +5478,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -5479,7 +5519,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -5520,7 +5560,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -5561,7 +5601,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -5602,7 +5642,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -5643,7 +5683,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -5684,7 +5724,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -5725,7 +5765,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -5766,7 +5806,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -5807,7 +5847,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -5848,7 +5888,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -5889,7 +5929,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -5930,7 +5970,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -5971,7 +6011,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -6012,7 +6052,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -6053,7 +6093,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -6094,7 +6134,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -6135,7 +6175,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -6176,7 +6216,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -6217,7 +6257,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -6258,7 +6298,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -6299,7 +6339,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -6340,7 +6380,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -6381,7 +6421,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -6422,7 +6462,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -6463,7 +6503,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -6504,7 +6544,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -6569,48 +6609,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -6651,7 +6691,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -6692,7 +6732,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -6733,7 +6773,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -6774,7 +6814,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -6815,7 +6855,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -6856,7 +6896,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -6897,7 +6937,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -6938,7 +6978,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -6979,7 +7019,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -7020,7 +7060,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -7061,7 +7101,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -7102,7 +7142,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -7143,7 +7183,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -7184,7 +7224,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -7225,7 +7265,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -7266,7 +7306,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -7307,7 +7347,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -7348,7 +7388,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -7389,7 +7429,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -7430,7 +7470,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -7471,7 +7511,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -7512,7 +7552,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -7553,7 +7593,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -7594,7 +7634,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -7635,7 +7675,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -7676,7 +7716,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -7717,7 +7757,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -7758,7 +7798,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -7799,7 +7839,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -7840,7 +7880,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -7881,7 +7921,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -7922,7 +7962,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -7963,7 +8003,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -8004,7 +8044,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -8045,7 +8085,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -8086,7 +8126,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -8127,7 +8167,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -8168,7 +8208,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -8209,7 +8249,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -8250,7 +8290,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -8291,7 +8331,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -8332,7 +8372,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -8373,7 +8413,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -8414,7 +8454,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -8479,48 +8519,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B2">
@@ -8561,7 +8601,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B3">
@@ -8602,7 +8642,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B4">
@@ -8643,7 +8683,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B5">
@@ -8684,7 +8724,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B6">
@@ -8725,7 +8765,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B7">
@@ -8766,7 +8806,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B8">
@@ -8807,7 +8847,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B9">
@@ -8848,7 +8888,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B10">
@@ -8889,7 +8929,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B11">
@@ -8930,7 +8970,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B12">
@@ -8971,7 +9011,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B13">
@@ -9012,7 +9052,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B14">
@@ -9053,7 +9093,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B15">
@@ -9094,7 +9134,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B16">
@@ -9135,7 +9175,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B17">
@@ -9176,7 +9216,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B18">
@@ -9217,7 +9257,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B19">
@@ -9258,7 +9298,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B20">
@@ -9299,7 +9339,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B21">
@@ -9340,7 +9380,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B22">
@@ -9381,7 +9421,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B23">
@@ -9422,7 +9462,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B24">
@@ -9463,7 +9503,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B25">
@@ -9504,7 +9544,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B26">
@@ -9545,7 +9585,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B27">
@@ -9586,7 +9626,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B28">
@@ -9627,7 +9667,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B29">
@@ -9668,7 +9708,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B30">
@@ -9709,7 +9749,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B31">
@@ -9750,7 +9790,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B32">
@@ -9791,7 +9831,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B33">
@@ -9832,7 +9872,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B34">
@@ -9873,7 +9913,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="25" t="s">
         <v>91</v>
       </c>
       <c r="B35">
@@ -9914,7 +9954,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B36">
@@ -9955,7 +9995,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B37">
@@ -9996,7 +10036,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B38">
@@ -10037,7 +10077,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B39">
@@ -10078,7 +10118,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B40">
@@ -10119,7 +10159,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B41">
@@ -10160,7 +10200,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B42">
@@ -10201,7 +10241,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B43">
@@ -10242,7 +10282,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B44">
@@ -10283,7 +10323,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B45">
@@ -10324,7 +10364,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B46">
@@ -10389,48 +10429,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B2">
@@ -10471,7 +10511,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B3">
@@ -10512,7 +10552,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
       <c r="B4">
@@ -10553,7 +10593,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B5">
@@ -10594,7 +10634,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B6">
@@ -10635,7 +10675,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B7">
@@ -10676,7 +10716,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B8">
@@ -10717,7 +10757,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B9">
@@ -10758,7 +10798,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B10">
@@ -10799,7 +10839,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B11">
@@ -10840,7 +10880,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B12">
@@ -10881,7 +10921,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B13">
@@ -10922,7 +10962,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B14">
@@ -10963,7 +11003,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="27" t="s">
         <v>71</v>
       </c>
       <c r="B15">
@@ -11004,7 +11044,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="27" t="s">
         <v>72</v>
       </c>
       <c r="B16">
@@ -11045,7 +11085,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="27" t="s">
         <v>73</v>
       </c>
       <c r="B17">
@@ -11086,7 +11126,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B18">
@@ -11127,7 +11167,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B19">
@@ -11168,7 +11208,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B20">
@@ -11209,7 +11249,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B21">
@@ -11250,7 +11290,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B22">
@@ -11291,7 +11331,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B23">
@@ -11332,7 +11372,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B24">
@@ -11373,7 +11413,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B25">
@@ -11414,7 +11454,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="27" t="s">
         <v>82</v>
       </c>
       <c r="B26">
@@ -11455,7 +11495,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B27">
@@ -11496,7 +11536,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B28">
@@ -11537,7 +11577,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B29">
@@ -11578,7 +11618,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B30">
@@ -11619,7 +11659,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B31">
@@ -11660,7 +11700,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="27" t="s">
         <v>88</v>
       </c>
       <c r="B32">
@@ -11701,7 +11741,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B33">
@@ -11742,7 +11782,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B34">
@@ -11783,7 +11823,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B35">
@@ -11824,7 +11864,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B36">
@@ -11865,7 +11905,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="27" t="s">
         <v>93</v>
       </c>
       <c r="B37">
@@ -11906,7 +11946,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="27" t="s">
         <v>94</v>
       </c>
       <c r="B38">
@@ -11947,7 +11987,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B39">
@@ -11988,7 +12028,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B40">
@@ -12029,7 +12069,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="27" t="s">
         <v>97</v>
       </c>
       <c r="B41">
@@ -12070,7 +12110,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="27" t="s">
         <v>98</v>
       </c>
       <c r="B42">
@@ -12111,7 +12151,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B43">
@@ -12152,7 +12192,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B44">
@@ -12193,7 +12233,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B45">
@@ -12234,7 +12274,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B46">
@@ -12299,48 +12339,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="29" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="29" t="s">
         <v>103</v>
       </c>
       <c r="B2">
@@ -12381,7 +12421,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B3">
@@ -12422,7 +12462,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="29" t="s">
         <v>105</v>
       </c>
       <c r="B4">
@@ -12463,7 +12503,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B5">
@@ -12504,7 +12544,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="29" t="s">
         <v>107</v>
       </c>
       <c r="B6">
@@ -12545,7 +12585,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="29" t="s">
         <v>108</v>
       </c>
       <c r="B7">
@@ -12586,7 +12626,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="29" t="s">
         <v>109</v>
       </c>
       <c r="B8">
@@ -12627,7 +12667,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="29" t="s">
         <v>110</v>
       </c>
       <c r="B9">
@@ -12668,7 +12708,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B10">
@@ -12709,7 +12749,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="29" t="s">
         <v>112</v>
       </c>
       <c r="B11">
@@ -12750,7 +12790,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="29" t="s">
         <v>113</v>
       </c>
       <c r="B12">
@@ -12791,7 +12831,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B13">
@@ -12832,7 +12872,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B14">
@@ -12873,7 +12913,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B15">
@@ -12914,7 +12954,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B16">
@@ -12955,7 +12995,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B17">
@@ -12996,7 +13036,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="29" t="s">
         <v>119</v>
       </c>
       <c r="B18">
@@ -13037,7 +13077,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B19">
@@ -13078,7 +13118,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B20">
@@ -13119,7 +13159,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B21">
@@ -13160,7 +13200,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="29" t="s">
         <v>123</v>
       </c>
       <c r="B22">
@@ -13201,7 +13241,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="29" t="s">
         <v>124</v>
       </c>
       <c r="B23">
@@ -13242,7 +13282,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B24">
@@ -13283,7 +13323,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B25">
@@ -13324,7 +13364,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B26">
@@ -13365,7 +13405,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="29" t="s">
         <v>128</v>
       </c>
       <c r="B27">
@@ -13406,7 +13446,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="29" t="s">
         <v>129</v>
       </c>
       <c r="B28">
@@ -13447,7 +13487,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="29" t="s">
         <v>130</v>
       </c>
       <c r="B29">
@@ -13488,7 +13528,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="29" t="s">
         <v>131</v>
       </c>
       <c r="B30">
@@ -13529,7 +13569,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="29" t="s">
         <v>132</v>
       </c>
       <c r="B31">
@@ -13570,7 +13610,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="29" t="s">
         <v>133</v>
       </c>
       <c r="B32">
@@ -13611,7 +13651,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B33">
@@ -13652,7 +13692,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="29" t="s">
         <v>135</v>
       </c>
       <c r="B34">
@@ -13693,7 +13733,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="29" t="s">
         <v>136</v>
       </c>
       <c r="B35">
@@ -13734,7 +13774,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="29" t="s">
         <v>137</v>
       </c>
       <c r="B36">
@@ -13775,7 +13815,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="29" t="s">
         <v>138</v>
       </c>
       <c r="B37">
@@ -13816,7 +13856,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="29" t="s">
         <v>139</v>
       </c>
       <c r="B38">
@@ -13857,7 +13897,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B39">
@@ -13898,7 +13938,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B40">
@@ -13939,7 +13979,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B41">
@@ -13980,7 +14020,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B42">
@@ -14021,7 +14061,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="29" t="s">
         <v>144</v>
       </c>
       <c r="B43">
@@ -14062,7 +14102,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B44">
@@ -14103,7 +14143,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B45">
@@ -14144,7 +14184,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B46">
@@ -14209,48 +14249,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="31" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="31" t="s">
         <v>103</v>
       </c>
       <c r="B2">
@@ -14291,7 +14331,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="31" t="s">
         <v>104</v>
       </c>
       <c r="B3">
@@ -14332,7 +14372,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="31" t="s">
         <v>105</v>
       </c>
       <c r="B4">
@@ -14373,7 +14413,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B5">
@@ -14414,7 +14454,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="31" t="s">
         <v>107</v>
       </c>
       <c r="B6">
@@ -14455,7 +14495,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="31" t="s">
         <v>108</v>
       </c>
       <c r="B7">
@@ -14496,7 +14536,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B8">
@@ -14537,7 +14577,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="31" t="s">
         <v>110</v>
       </c>
       <c r="B9">
@@ -14578,7 +14618,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="31" t="s">
         <v>111</v>
       </c>
       <c r="B10">
@@ -14619,7 +14659,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="31" t="s">
         <v>112</v>
       </c>
       <c r="B11">
@@ -14660,7 +14700,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="31" t="s">
         <v>113</v>
       </c>
       <c r="B12">
@@ -14701,7 +14741,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="31" t="s">
         <v>114</v>
       </c>
       <c r="B13">
@@ -14742,7 +14782,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="31" t="s">
         <v>115</v>
       </c>
       <c r="B14">
@@ -14783,7 +14823,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="31" t="s">
         <v>116</v>
       </c>
       <c r="B15">
@@ -14824,7 +14864,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="31" t="s">
         <v>117</v>
       </c>
       <c r="B16">
@@ -14865,7 +14905,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="31" t="s">
         <v>118</v>
       </c>
       <c r="B17">
@@ -14906,7 +14946,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="31" t="s">
         <v>119</v>
       </c>
       <c r="B18">
@@ -14947,7 +14987,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="31" t="s">
         <v>120</v>
       </c>
       <c r="B19">
@@ -14988,7 +15028,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B20">
@@ -15029,7 +15069,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="31" t="s">
         <v>122</v>
       </c>
       <c r="B21">
@@ -15070,7 +15110,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="31" t="s">
         <v>123</v>
       </c>
       <c r="B22">
@@ -15111,7 +15151,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="31" t="s">
         <v>124</v>
       </c>
       <c r="B23">
@@ -15152,7 +15192,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B24">
@@ -15193,7 +15233,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B25">
@@ -15234,7 +15274,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="31" t="s">
         <v>127</v>
       </c>
       <c r="B26">
@@ -15275,7 +15315,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="31" t="s">
         <v>128</v>
       </c>
       <c r="B27">
@@ -15316,7 +15356,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="31" t="s">
         <v>129</v>
       </c>
       <c r="B28">
@@ -15357,7 +15397,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="31" t="s">
         <v>130</v>
       </c>
       <c r="B29">
@@ -15398,7 +15438,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B30">
@@ -15439,7 +15479,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="31" t="s">
         <v>132</v>
       </c>
       <c r="B31">
@@ -15480,7 +15520,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="31" t="s">
         <v>133</v>
       </c>
       <c r="B32">
@@ -15521,7 +15561,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="31" t="s">
         <v>134</v>
       </c>
       <c r="B33">
@@ -15562,7 +15602,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="31" t="s">
         <v>135</v>
       </c>
       <c r="B34">
@@ -15603,7 +15643,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="31" t="s">
         <v>136</v>
       </c>
       <c r="B35">
@@ -15644,7 +15684,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="31" t="s">
         <v>137</v>
       </c>
       <c r="B36">
@@ -15685,7 +15725,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="31" t="s">
         <v>138</v>
       </c>
       <c r="B37">
@@ -15726,7 +15766,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="31" t="s">
         <v>139</v>
       </c>
       <c r="B38">
@@ -15767,7 +15807,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="31" t="s">
         <v>140</v>
       </c>
       <c r="B39">
@@ -15808,7 +15848,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="31" t="s">
         <v>141</v>
       </c>
       <c r="B40">
@@ -15849,7 +15889,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="31" t="s">
         <v>142</v>
       </c>
       <c r="B41">
@@ -15890,7 +15930,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="31" t="s">
         <v>143</v>
       </c>
       <c r="B42">
@@ -15931,7 +15971,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="31" t="s">
         <v>144</v>
       </c>
       <c r="B43">
@@ -15972,7 +16012,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="31" t="s">
         <v>145</v>
       </c>
       <c r="B44">
@@ -16013,7 +16053,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="31" t="s">
         <v>146</v>
       </c>
       <c r="B45">
@@ -16054,7 +16094,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="31" t="s">
         <v>147</v>
       </c>
       <c r="B46">
@@ -16119,48 +16159,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B2">
@@ -16201,7 +16241,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B3">
@@ -16242,7 +16282,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B4">
@@ -16283,7 +16323,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B5">
@@ -16324,7 +16364,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="33" t="s">
         <v>152</v>
       </c>
       <c r="B6">
@@ -16365,7 +16405,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="33" t="s">
         <v>153</v>
       </c>
       <c r="B7">
@@ -16406,7 +16446,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="33" t="s">
         <v>154</v>
       </c>
       <c r="B8">
@@ -16447,7 +16487,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B9">
@@ -16488,7 +16528,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="33" t="s">
         <v>156</v>
       </c>
       <c r="B10">
@@ -16529,7 +16569,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="33" t="s">
         <v>157</v>
       </c>
       <c r="B11">
@@ -16570,7 +16610,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="33" t="s">
         <v>158</v>
       </c>
       <c r="B12">
@@ -16611,7 +16651,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="33" t="s">
         <v>159</v>
       </c>
       <c r="B13">
@@ -16652,7 +16692,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="33" t="s">
         <v>160</v>
       </c>
       <c r="B14">
@@ -16693,7 +16733,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B15">
@@ -16734,7 +16774,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="33" t="s">
         <v>162</v>
       </c>
       <c r="B16">
@@ -16775,7 +16815,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="33" t="s">
         <v>163</v>
       </c>
       <c r="B17">
@@ -16816,7 +16856,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="33" t="s">
         <v>164</v>
       </c>
       <c r="B18">
@@ -16857,7 +16897,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="33" t="s">
         <v>165</v>
       </c>
       <c r="B19">
@@ -16898,7 +16938,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B20">
@@ -16939,7 +16979,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B21">
@@ -16980,7 +17020,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="33" t="s">
         <v>168</v>
       </c>
       <c r="B22">
@@ -17021,7 +17061,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B23">
@@ -17062,7 +17102,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="33" t="s">
         <v>170</v>
       </c>
       <c r="B24">
@@ -17103,7 +17143,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="33" t="s">
         <v>171</v>
       </c>
       <c r="B25">
@@ -17144,7 +17184,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="33" t="s">
         <v>172</v>
       </c>
       <c r="B26">
@@ -17185,7 +17225,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="33" t="s">
         <v>173</v>
       </c>
       <c r="B27">
@@ -17226,7 +17266,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="33" t="s">
         <v>174</v>
       </c>
       <c r="B28">
@@ -17267,7 +17307,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="33" t="s">
         <v>175</v>
       </c>
       <c r="B29">
@@ -17308,7 +17348,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="33" t="s">
         <v>176</v>
       </c>
       <c r="B30">
@@ -17349,7 +17389,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="33" t="s">
         <v>177</v>
       </c>
       <c r="B31">
@@ -17390,7 +17430,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="33" t="s">
         <v>178</v>
       </c>
       <c r="B32">
@@ -17431,7 +17471,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="33" t="s">
         <v>179</v>
       </c>
       <c r="B33">
@@ -17472,7 +17512,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="33" t="s">
         <v>180</v>
       </c>
       <c r="B34">
@@ -17513,7 +17553,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="33" t="s">
         <v>181</v>
       </c>
       <c r="B35">
@@ -17554,7 +17594,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="33" t="s">
         <v>182</v>
       </c>
       <c r="B36">
@@ -17595,7 +17635,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="33" t="s">
         <v>183</v>
       </c>
       <c r="B37">
@@ -17636,7 +17676,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="33" t="s">
         <v>184</v>
       </c>
       <c r="B38">
@@ -17677,7 +17717,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="33" t="s">
         <v>185</v>
       </c>
       <c r="B39">
@@ -17718,7 +17758,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="33" t="s">
         <v>186</v>
       </c>
       <c r="B40">
@@ -17759,7 +17799,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="33" t="s">
         <v>187</v>
       </c>
       <c r="B41">
@@ -17800,7 +17840,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="33" t="s">
         <v>188</v>
       </c>
       <c r="B42">
@@ -17841,7 +17881,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="33" t="s">
         <v>189</v>
       </c>
       <c r="B43">
@@ -17882,7 +17922,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="33" t="s">
         <v>190</v>
       </c>
       <c r="B44">
@@ -17923,7 +17963,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="33" t="s">
         <v>191</v>
       </c>
       <c r="B45">
@@ -17964,7 +18004,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="33" t="s">
         <v>192</v>
       </c>
       <c r="B46">
@@ -18029,48 +18069,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="35" t="s">
         <v>148</v>
       </c>
       <c r="B2">
@@ -18111,7 +18151,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>149</v>
       </c>
       <c r="B3">
@@ -18152,7 +18192,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="35" t="s">
         <v>150</v>
       </c>
       <c r="B4">
@@ -18193,7 +18233,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="35" t="s">
         <v>151</v>
       </c>
       <c r="B5">
@@ -18234,7 +18274,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="35" t="s">
         <v>152</v>
       </c>
       <c r="B6">
@@ -18275,7 +18315,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="35" t="s">
         <v>153</v>
       </c>
       <c r="B7">
@@ -18316,7 +18356,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="35" t="s">
         <v>154</v>
       </c>
       <c r="B8">
@@ -18357,7 +18397,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="35" t="s">
         <v>155</v>
       </c>
       <c r="B9">
@@ -18398,7 +18438,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="35" t="s">
         <v>156</v>
       </c>
       <c r="B10">
@@ -18439,7 +18479,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="35" t="s">
         <v>157</v>
       </c>
       <c r="B11">
@@ -18480,7 +18520,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="35" t="s">
         <v>158</v>
       </c>
       <c r="B12">
@@ -18521,7 +18561,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="35" t="s">
         <v>159</v>
       </c>
       <c r="B13">
@@ -18562,7 +18602,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="35" t="s">
         <v>160</v>
       </c>
       <c r="B14">
@@ -18603,7 +18643,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="35" t="s">
         <v>161</v>
       </c>
       <c r="B15">
@@ -18644,7 +18684,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="35" t="s">
         <v>162</v>
       </c>
       <c r="B16">
@@ -18685,7 +18725,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="35" t="s">
         <v>163</v>
       </c>
       <c r="B17">
@@ -18726,7 +18766,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>164</v>
       </c>
       <c r="B18">
@@ -18767,7 +18807,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="35" t="s">
         <v>165</v>
       </c>
       <c r="B19">
@@ -18808,7 +18848,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="35" t="s">
         <v>166</v>
       </c>
       <c r="B20">
@@ -18849,7 +18889,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B21">
@@ -18890,7 +18930,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B22">
@@ -18931,7 +18971,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="35" t="s">
         <v>169</v>
       </c>
       <c r="B23">
@@ -18972,7 +19012,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="35" t="s">
         <v>170</v>
       </c>
       <c r="B24">
@@ -19013,7 +19053,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="35" t="s">
         <v>171</v>
       </c>
       <c r="B25">
@@ -19054,7 +19094,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="35" t="s">
         <v>172</v>
       </c>
       <c r="B26">
@@ -19095,7 +19135,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="35" t="s">
         <v>173</v>
       </c>
       <c r="B27">
@@ -19136,7 +19176,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="35" t="s">
         <v>174</v>
       </c>
       <c r="B28">
@@ -19177,7 +19217,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="35" t="s">
         <v>175</v>
       </c>
       <c r="B29">
@@ -19218,7 +19258,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="35" t="s">
         <v>176</v>
       </c>
       <c r="B30">
@@ -19259,7 +19299,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="35" t="s">
         <v>177</v>
       </c>
       <c r="B31">
@@ -19300,7 +19340,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="35" t="s">
         <v>178</v>
       </c>
       <c r="B32">
@@ -19341,7 +19381,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="35" t="s">
         <v>179</v>
       </c>
       <c r="B33">
@@ -19382,7 +19422,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="35" t="s">
         <v>180</v>
       </c>
       <c r="B34">
@@ -19423,7 +19463,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="35" t="s">
         <v>181</v>
       </c>
       <c r="B35">
@@ -19464,7 +19504,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="35" t="s">
         <v>182</v>
       </c>
       <c r="B36">
@@ -19505,7 +19545,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="35" t="s">
         <v>183</v>
       </c>
       <c r="B37">
@@ -19546,7 +19586,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="35" t="s">
         <v>184</v>
       </c>
       <c r="B38">
@@ -19587,7 +19627,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="35" t="s">
         <v>185</v>
       </c>
       <c r="B39">
@@ -19628,7 +19668,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="35" t="s">
         <v>186</v>
       </c>
       <c r="B40">
@@ -19669,7 +19709,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="35" t="s">
         <v>187</v>
       </c>
       <c r="B41">
@@ -19710,7 +19750,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="35" t="s">
         <v>188</v>
       </c>
       <c r="B42">
@@ -19751,7 +19791,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="35" t="s">
         <v>189</v>
       </c>
       <c r="B43">
@@ -19792,7 +19832,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="35" t="s">
         <v>190</v>
       </c>
       <c r="B44">
@@ -19833,7 +19873,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="35" t="s">
         <v>191</v>
       </c>
       <c r="B45">
@@ -19874,7 +19914,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="35" t="s">
         <v>192</v>
       </c>
       <c r="B46">
